--- a/Data/AAAAAA.xlsx
+++ b/Data/AAAAAA.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\AMME2262\Engine Lab\Engine-Lab\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9781A813-A857-4994-9262-FEAD28D622F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="9600" yWindow="5640" windowWidth="19360" windowHeight="10480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="56">
   <si>
     <t>Time</t>
   </si>
@@ -23,150 +31,150 @@
     <t>Calculated Parameters (Energy)</t>
   </si>
   <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">DPT1</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve"> </d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">Engine</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve"> </d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">Air</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve"> </d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">&amp;</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve"> </d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">Exhaust</d:t>
-    </d:r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>DPT1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>Engine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>Air</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>Exhaust</t>
+    </r>
   </si>
   <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">DTS2</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve"> </d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">Engine</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve"> </d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">Torque</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve"> </d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">&amp;</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve"> </d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">Speed</d:t>
-    </d:r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>DTS2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>Engine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>Torque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>Speed</t>
+    </r>
   </si>
   <si>
     <t>TDX00A Exhaust Calorimeter</t>
@@ -262,108 +270,108 @@
     <t>(s)</t>
   </si>
   <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">(mL.min</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">-1</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">)</d:t>
-    </d:r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>(mL.min</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">(kg.s</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">-1</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">)</d:t>
-    </d:r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>(kg.s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">(kg.m</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">-3</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">)</d:t>
-    </d:r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>(kg.m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">(MJ.kg</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">-1</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">)</d:t>
-    </d:r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>(MJ.kg</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>(W)</t>
@@ -381,139 +389,139 @@
     <t>(mm)</t>
   </si>
   <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">(x10</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">-3</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve"> </d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">kg.s</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">-1</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">)</d:t>
-    </d:r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>(x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>kg.s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>(Nm)</t>
   </si>
   <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">(rev.min</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">-1</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">)</d:t>
-    </d:r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>(rev.min</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">(L.min</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">-1</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">)</d:t>
-    </d:r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>(L.min</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">(kg.kWh</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">-1</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="11"/>
-        <d:color rgb="0"/>
-        <d:rFont val="Segoe UI"/>
-      </d:rPr>
-      <d:t xml:space="preserve">)</d:t>
-    </d:r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>(kg.kWh</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>(%)</t>
@@ -534,12 +542,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -553,6 +561,17 @@
       <sz val="11"/>
       <name val="Segoe UI"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -563,17 +582,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEDFFED" tint="0"/>
+        <fgColor rgb="FFEDFFED"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE8FCFF" tint="0"/>
+        <fgColor rgb="FFE8FCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFE0" tint="0"/>
+        <fgColor rgb="FFFFFFE0"/>
       </patternFill>
     </fill>
   </fills>
@@ -586,153 +605,538 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair"/>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="hair"/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="hair"/>
-      <right style="medium"/>
-      <top style="hair"/>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0"/>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
-    <xf numFmtId="2" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="2" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0"/>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="2" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
-    <xf numFmtId="2" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="2" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="0"/>
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
-    <d:dxf xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="ffffffff"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-    </d:dxf>
-    <d:dxf xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <font>
-        <b val="1"/>
-      </font>
-    </d:dxf>
+    </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" state="frozen" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.5621566772461" customWidth="1" style="2"/>
-    <col min="2" max="2" width="18.7577471051897" customWidth="1" style="3"/>
-    <col min="3" max="3" width="18.7577471051897" customWidth="1" style="4"/>
-    <col min="4" max="4" width="13.0081198556083" customWidth="1" style="5"/>
-    <col min="5" max="5" width="19.5209546770368" customWidth="1" style="6"/>
-    <col min="6" max="6" width="20.9931444440569" customWidth="1" style="7"/>
-    <col min="7" max="7" width="21.5588989257813" customWidth="1" style="8"/>
-    <col min="8" max="8" width="17.6385138375419" customWidth="1" style="8"/>
-    <col min="9" max="9" width="21.4535239083426" customWidth="1" style="9"/>
-    <col min="10" max="10" width="25.5785239083426" customWidth="1" style="10"/>
-    <col min="11" max="11" width="25.5529479980469" customWidth="1" style="8"/>
-    <col min="12" max="12" width="27.2911355154855" customWidth="1" style="8"/>
-    <col min="13" max="13" width="21.4023720877511" customWidth="1" style="8"/>
-    <col min="14" max="14" width="16.957152230399" customWidth="1" style="11"/>
-    <col min="15" max="15" width="19.3674948556083" customWidth="1" style="12"/>
-    <col min="16" max="16" width="9.140625" customWidth="1" style="3"/>
-    <col min="17" max="17" width="11.7251957484654" customWidth="1" style="5"/>
-    <col min="18" max="18" width="9.140625" customWidth="1" style="13"/>
-    <col min="19" max="19" width="27.5755484444754" customWidth="1" style="10"/>
-    <col min="20" max="20" width="29.3597739083426" customWidth="1" style="14"/>
-    <col min="21" max="21" width="29.1224212646484" customWidth="1" style="8"/>
-    <col min="22" max="22" width="30.9066489083426" customWidth="1" style="14"/>
-    <col min="23" max="23" width="24.9616154261998" customWidth="1" style="12"/>
-    <col min="24" max="24" width="14.0946153913225" customWidth="1" style="15"/>
-    <col min="25" max="25" width="22.0888475690569" customWidth="1" style="16"/>
-    <col min="26" max="26" width="18.5889413016183" customWidth="1" style="16"/>
-    <col min="27" max="27" width="21.2161734444754" customWidth="1" style="16"/>
-    <col min="28" max="28" width="16.5561109270368" customWidth="1" style="5"/>
-    <col min="29" max="29" width="26.101309640067" customWidth="1" style="5"/>
-    <col min="30" max="30" width="9.140625" customWidth="1" style="17"/>
-    <col min="31" max="16384" width="9.140625" customWidth="1" style="1"/>
+    <col min="1" max="1" width="14.54296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="21" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.54296875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.6328125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="21.453125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="25.54296875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="25.54296875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="27.26953125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="21.36328125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="17" style="11" customWidth="1"/>
+    <col min="15" max="15" width="19.36328125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="11.7265625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="9.1796875" style="13" customWidth="1"/>
+    <col min="19" max="19" width="27.54296875" style="10" customWidth="1"/>
+    <col min="20" max="20" width="29.36328125" style="14" customWidth="1"/>
+    <col min="21" max="21" width="29.08984375" style="8" customWidth="1"/>
+    <col min="22" max="22" width="30.90625" style="14" customWidth="1"/>
+    <col min="23" max="23" width="25" style="12" customWidth="1"/>
+    <col min="24" max="24" width="14.08984375" style="15" customWidth="1"/>
+    <col min="25" max="25" width="22.08984375" style="16" customWidth="1"/>
+    <col min="26" max="26" width="18.54296875" style="16" customWidth="1"/>
+    <col min="27" max="27" width="21.1796875" style="16" customWidth="1"/>
+    <col min="28" max="28" width="16.54296875" style="5" customWidth="1"/>
+    <col min="29" max="29" width="26.08984375" style="5" customWidth="1"/>
+    <col min="30" max="30" width="9.1796875" style="17" customWidth="1"/>
+    <col min="31" max="31" width="9.1796875" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="10" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="T1" s="33"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="22"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -824,7 +1228,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:30" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -916,12 +1320,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" s="18" customFormat="1">
+    <row r="4" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1013,7 +1417,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1105,7 +1509,7 @@
         <v>7.66</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1197,7 +1601,7 @@
         <v>7.74</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1289,7 +1693,7 @@
         <v>7.86</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1381,7 +1785,7 @@
         <v>7.91</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -1473,7 +1877,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>12</v>
       </c>
@@ -1565,7 +1969,7 @@
         <v>7.98</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>14</v>
       </c>
@@ -1657,7 +2061,7 @@
         <v>7.98</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>16</v>
       </c>
@@ -1749,7 +2153,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>18</v>
       </c>
@@ -1841,7 +2245,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>20</v>
       </c>
@@ -1933,7 +2337,7 @@
         <v>7.86</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>22</v>
       </c>
@@ -1941,7 +2345,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4">
-        <v>0.00019</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D16" s="5">
         <v>740</v>
@@ -2025,7 +2429,7 @@
         <v>7.87</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>24</v>
       </c>
@@ -2033,7 +2437,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="4">
-        <v>0.00019</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D17" s="5">
         <v>740</v>
@@ -2117,7 +2521,7 @@
         <v>7.87</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>26</v>
       </c>
@@ -2125,7 +2529,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="4">
-        <v>0.00019</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D18" s="5">
         <v>740</v>
@@ -2209,7 +2613,7 @@
         <v>7.88</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>28</v>
       </c>
@@ -2217,7 +2621,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="4">
-        <v>0.00019</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D19" s="5">
         <v>740</v>
@@ -2301,7 +2705,7 @@
         <v>7.88</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>30</v>
       </c>
@@ -2309,7 +2713,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="4">
-        <v>0.00019</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D20" s="5">
         <v>740</v>
@@ -2372,7 +2776,7 @@
         <v>55</v>
       </c>
       <c r="X20" s="15">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="Y20" s="16">
         <v>0.34</v>
@@ -2393,7 +2797,7 @@
         <v>7.87</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>32</v>
       </c>
@@ -2401,7 +2805,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="4">
-        <v>0.00019</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D21" s="5">
         <v>740</v>
@@ -2485,7 +2889,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>34</v>
       </c>
@@ -2493,7 +2897,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="4">
-        <v>0.00019</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D22" s="5">
         <v>740</v>
@@ -2577,7 +2981,7 @@
         <v>7.91</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>36</v>
       </c>
@@ -2585,7 +2989,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="4">
-        <v>0.00019</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D23" s="5">
         <v>740</v>
@@ -2669,7 +3073,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>38</v>
       </c>
@@ -2677,7 +3081,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="4">
-        <v>0.00019</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D24" s="5">
         <v>740</v>
@@ -2761,7 +3165,7 @@
         <v>7.81</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>40</v>
       </c>
@@ -2769,7 +3173,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="4">
-        <v>0.00019</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D25" s="5">
         <v>740</v>
@@ -2853,7 +3257,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>42</v>
       </c>
@@ -2861,7 +3265,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="4">
-        <v>0.00019</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D26" s="5">
         <v>740</v>
@@ -2945,7 +3349,7 @@
         <v>7.82</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>44</v>
       </c>
@@ -2953,7 +3357,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="4">
-        <v>0.00019</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D27" s="5">
         <v>740</v>
@@ -3037,7 +3441,7 @@
         <v>7.82</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>46</v>
       </c>
@@ -3045,7 +3449,7 @@
         <v>15</v>
       </c>
       <c r="C28" s="4">
-        <v>0.00019</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D28" s="5">
         <v>740</v>
@@ -3129,7 +3533,7 @@
         <v>7.77</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>48</v>
       </c>
@@ -3137,7 +3541,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="4">
-        <v>0.00019</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D29" s="5">
         <v>740</v>
@@ -3221,7 +3625,7 @@
         <v>7.81</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>50</v>
       </c>
@@ -3229,7 +3633,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="4">
-        <v>0.00019</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D30" s="5">
         <v>740</v>
@@ -3313,7 +3717,7 @@
         <v>7.78</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>52</v>
       </c>
@@ -3321,7 +3725,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="4">
-        <v>0.00019</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D31" s="5">
         <v>740</v>
@@ -3384,7 +3788,7 @@
         <v>55</v>
       </c>
       <c r="X31" s="15">
-        <v>16.17</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="Y31" s="16">
         <v>0.35</v>
@@ -3405,7 +3809,7 @@
         <v>7.79</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>54</v>
       </c>
@@ -3413,7 +3817,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="4">
-        <v>0.00019</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D32" s="5">
         <v>740</v>
@@ -3497,7 +3901,7 @@
         <v>7.77</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>56</v>
       </c>
@@ -3505,7 +3909,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="4">
-        <v>0.00019</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D33" s="5">
         <v>740</v>
@@ -3589,7 +3993,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>58</v>
       </c>
@@ -3597,7 +4001,7 @@
         <v>15</v>
       </c>
       <c r="C34" s="4">
-        <v>0.00019</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D34" s="5">
         <v>740</v>
@@ -3681,7 +4085,7 @@
         <v>7.79</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>60</v>
       </c>
@@ -3689,7 +4093,7 @@
         <v>15</v>
       </c>
       <c r="C35" s="4">
-        <v>0.00019</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D35" s="5">
         <v>740</v>
@@ -3773,7 +4177,7 @@
         <v>7.81</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>62</v>
       </c>
@@ -3781,7 +4185,7 @@
         <v>15</v>
       </c>
       <c r="C36" s="4">
-        <v>0.00019</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D36" s="5">
         <v>740</v>
@@ -3865,7 +4269,7 @@
         <v>7.76</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>64</v>
       </c>
@@ -3873,7 +4277,7 @@
         <v>15</v>
       </c>
       <c r="C37" s="4">
-        <v>0.00019</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D37" s="5">
         <v>740</v>
@@ -3957,7 +4361,7 @@
         <v>7.78</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>66</v>
       </c>
@@ -3965,7 +4369,7 @@
         <v>14.7</v>
       </c>
       <c r="C38" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D38" s="5">
         <v>740</v>
@@ -4049,7 +4453,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>68</v>
       </c>
@@ -4057,7 +4461,7 @@
         <v>14.7</v>
       </c>
       <c r="C39" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D39" s="5">
         <v>740</v>
@@ -4141,7 +4545,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>70</v>
       </c>
@@ -4149,7 +4553,7 @@
         <v>14.7</v>
       </c>
       <c r="C40" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D40" s="5">
         <v>740</v>
@@ -4233,7 +4637,7 @@
         <v>7.69</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>72</v>
       </c>
@@ -4241,7 +4645,7 @@
         <v>14.7</v>
       </c>
       <c r="C41" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D41" s="5">
         <v>740</v>
@@ -4325,7 +4729,7 @@
         <v>7.74</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>74</v>
       </c>
@@ -4333,7 +4737,7 @@
         <v>14.7</v>
       </c>
       <c r="C42" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D42" s="5">
         <v>740</v>
@@ -4417,7 +4821,7 @@
         <v>7.74</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>76</v>
       </c>
@@ -4425,7 +4829,7 @@
         <v>14.7</v>
       </c>
       <c r="C43" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D43" s="5">
         <v>740</v>
@@ -4509,7 +4913,7 @@
         <v>7.76</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>78</v>
       </c>
@@ -4517,7 +4921,7 @@
         <v>14.7</v>
       </c>
       <c r="C44" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D44" s="5">
         <v>740</v>
@@ -4601,7 +5005,7 @@
         <v>7.73</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>80</v>
       </c>
@@ -4609,7 +5013,7 @@
         <v>14.7</v>
       </c>
       <c r="C45" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D45" s="5">
         <v>740</v>
@@ -4693,7 +5097,7 @@
         <v>7.79</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>82</v>
       </c>
@@ -4701,7 +5105,7 @@
         <v>14.7</v>
       </c>
       <c r="C46" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D46" s="5">
         <v>740</v>
@@ -4785,7 +5189,7 @@
         <v>7.82</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>84</v>
       </c>
@@ -4793,7 +5197,7 @@
         <v>14.7</v>
       </c>
       <c r="C47" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D47" s="5">
         <v>740</v>
@@ -4877,7 +5281,7 @@
         <v>7.74</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>86</v>
       </c>
@@ -4885,7 +5289,7 @@
         <v>14.7</v>
       </c>
       <c r="C48" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D48" s="5">
         <v>740</v>
@@ -4969,7 +5373,7 @@
         <v>7.69</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>88</v>
       </c>
@@ -4977,7 +5381,7 @@
         <v>14.7</v>
       </c>
       <c r="C49" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D49" s="5">
         <v>740</v>
@@ -5061,7 +5465,7 @@
         <v>7.69</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>90</v>
       </c>
@@ -5069,7 +5473,7 @@
         <v>14.7</v>
       </c>
       <c r="C50" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D50" s="5">
         <v>740</v>
@@ -5153,7 +5557,7 @@
         <v>7.73</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>92</v>
       </c>
@@ -5161,7 +5565,7 @@
         <v>14.7</v>
       </c>
       <c r="C51" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D51" s="5">
         <v>740</v>
@@ -5245,7 +5649,7 @@
         <v>7.73</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>94</v>
       </c>
@@ -5253,7 +5657,7 @@
         <v>14.7</v>
       </c>
       <c r="C52" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D52" s="5">
         <v>740</v>
@@ -5337,7 +5741,7 @@
         <v>7.69</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>96</v>
       </c>
@@ -5345,7 +5749,7 @@
         <v>14.7</v>
       </c>
       <c r="C53" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D53" s="5">
         <v>740</v>
@@ -5429,7 +5833,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>98</v>
       </c>
@@ -5437,7 +5841,7 @@
         <v>14.7</v>
       </c>
       <c r="C54" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D54" s="5">
         <v>740</v>
@@ -5521,7 +5925,7 @@
         <v>7.73</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>100</v>
       </c>
@@ -5529,7 +5933,7 @@
         <v>14.7</v>
       </c>
       <c r="C55" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D55" s="5">
         <v>740</v>
@@ -5613,7 +6017,7 @@
         <v>7.73</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>102</v>
       </c>
@@ -5621,7 +6025,7 @@
         <v>14.7</v>
       </c>
       <c r="C56" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D56" s="5">
         <v>740</v>
@@ -5705,7 +6109,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>104</v>
       </c>
@@ -5713,7 +6117,7 @@
         <v>14.7</v>
       </c>
       <c r="C57" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D57" s="5">
         <v>740</v>
@@ -5797,7 +6201,7 @@
         <v>7.73</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>106</v>
       </c>
@@ -5805,7 +6209,7 @@
         <v>14.7</v>
       </c>
       <c r="C58" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D58" s="5">
         <v>740</v>
@@ -5889,7 +6293,7 @@
         <v>7.66</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>108</v>
       </c>
@@ -5897,7 +6301,7 @@
         <v>14.7</v>
       </c>
       <c r="C59" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D59" s="5">
         <v>740</v>
@@ -5981,7 +6385,7 @@
         <v>7.65</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>110</v>
       </c>
@@ -5989,7 +6393,7 @@
         <v>14.7</v>
       </c>
       <c r="C60" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D60" s="5">
         <v>740</v>
@@ -6073,7 +6477,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>112</v>
       </c>
@@ -6081,7 +6485,7 @@
         <v>14.3</v>
       </c>
       <c r="C61" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D61" s="5">
         <v>740</v>
@@ -6165,7 +6569,7 @@
         <v>7.66</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
         <v>114</v>
       </c>
@@ -6173,7 +6577,7 @@
         <v>14.3</v>
       </c>
       <c r="C62" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D62" s="5">
         <v>740</v>
@@ -6257,7 +6661,7 @@
         <v>7.66</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A63" s="2">
         <v>116</v>
       </c>
@@ -6265,7 +6669,7 @@
         <v>14.3</v>
       </c>
       <c r="C63" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D63" s="5">
         <v>740</v>
@@ -6349,7 +6753,7 @@
         <v>7.62</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>118</v>
       </c>
@@ -6357,7 +6761,7 @@
         <v>14.3</v>
       </c>
       <c r="C64" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D64" s="5">
         <v>740</v>
@@ -6441,7 +6845,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>120</v>
       </c>
@@ -6449,7 +6853,7 @@
         <v>14.3</v>
       </c>
       <c r="C65" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D65" s="5">
         <v>740</v>
@@ -6533,7 +6937,7 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>122</v>
       </c>
@@ -6541,7 +6945,7 @@
         <v>14.3</v>
       </c>
       <c r="C66" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D66" s="5">
         <v>740</v>
@@ -6625,7 +7029,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>124</v>
       </c>
@@ -6633,7 +7037,7 @@
         <v>14.3</v>
       </c>
       <c r="C67" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D67" s="5">
         <v>740</v>
@@ -6717,7 +7121,7 @@
         <v>7.62</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>126</v>
       </c>
@@ -6725,7 +7129,7 @@
         <v>14.3</v>
       </c>
       <c r="C68" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D68" s="5">
         <v>740</v>
@@ -6809,7 +7213,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A69" s="2">
         <v>128</v>
       </c>
@@ -6817,7 +7221,7 @@
         <v>14.3</v>
       </c>
       <c r="C69" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D69" s="5">
         <v>740</v>
@@ -6901,7 +7305,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A70" s="2">
         <v>130</v>
       </c>
@@ -6909,7 +7313,7 @@
         <v>14.3</v>
       </c>
       <c r="C70" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D70" s="5">
         <v>740</v>
@@ -6993,7 +7397,7 @@
         <v>7.69</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
         <v>132</v>
       </c>
@@ -7001,7 +7405,7 @@
         <v>14.3</v>
       </c>
       <c r="C71" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D71" s="5">
         <v>740</v>
@@ -7085,7 +7489,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>134</v>
       </c>
@@ -7093,7 +7497,7 @@
         <v>14.3</v>
       </c>
       <c r="C72" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D72" s="5">
         <v>740</v>
@@ -7177,7 +7581,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>136</v>
       </c>
@@ -7185,7 +7589,7 @@
         <v>14.3</v>
       </c>
       <c r="C73" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D73" s="5">
         <v>740</v>
@@ -7269,7 +7673,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A74" s="2">
         <v>138</v>
       </c>
@@ -7277,7 +7681,7 @@
         <v>14.3</v>
       </c>
       <c r="C74" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D74" s="5">
         <v>740</v>
@@ -7361,7 +7765,7 @@
         <v>7.62</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A75" s="2">
         <v>140</v>
       </c>
@@ -7369,7 +7773,7 @@
         <v>14.3</v>
       </c>
       <c r="C75" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D75" s="5">
         <v>740</v>
@@ -7453,7 +7857,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
         <v>142</v>
       </c>
@@ -7461,7 +7865,7 @@
         <v>14.3</v>
       </c>
       <c r="C76" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D76" s="5">
         <v>740</v>
@@ -7545,7 +7949,7 @@
         <v>7.62</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
         <v>144</v>
       </c>
@@ -7553,7 +7957,7 @@
         <v>14.3</v>
       </c>
       <c r="C77" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D77" s="5">
         <v>740</v>
@@ -7637,7 +8041,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
         <v>146</v>
       </c>
@@ -7645,7 +8049,7 @@
         <v>14.3</v>
       </c>
       <c r="C78" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D78" s="5">
         <v>740</v>
@@ -7729,7 +8133,7 @@
         <v>7.66</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A79" s="2">
         <v>148</v>
       </c>
@@ -7737,7 +8141,7 @@
         <v>14.3</v>
       </c>
       <c r="C79" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D79" s="5">
         <v>740</v>
@@ -7821,7 +8225,7 @@
         <v>7.62</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A80" s="2">
         <v>150</v>
       </c>
@@ -7829,7 +8233,7 @@
         <v>14.3</v>
       </c>
       <c r="C80" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D80" s="5">
         <v>740</v>
@@ -7913,7 +8317,7 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A81" s="2">
         <v>152</v>
       </c>
@@ -7921,7 +8325,7 @@
         <v>14.3</v>
       </c>
       <c r="C81" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D81" s="5">
         <v>740</v>
@@ -8005,7 +8409,7 @@
         <v>7.56</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A82" s="2">
         <v>154</v>
       </c>
@@ -8013,7 +8417,7 @@
         <v>14.3</v>
       </c>
       <c r="C82" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D82" s="5">
         <v>740</v>
@@ -8097,7 +8501,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A83" s="2">
         <v>156</v>
       </c>
@@ -8105,7 +8509,7 @@
         <v>14.3</v>
       </c>
       <c r="C83" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D83" s="5">
         <v>740</v>
@@ -8189,7 +8593,7 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A84" s="2">
         <v>158</v>
       </c>
@@ -8197,7 +8601,7 @@
         <v>14.3</v>
       </c>
       <c r="C84" s="4">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D84" s="5">
         <v>740</v>
@@ -8281,7 +8685,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A85" s="2">
         <v>160</v>
       </c>
@@ -8289,7 +8693,7 @@
         <v>13.9</v>
       </c>
       <c r="C85" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D85" s="5">
         <v>740</v>
@@ -8373,7 +8777,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A86" s="2">
         <v>162</v>
       </c>
@@ -8381,7 +8785,7 @@
         <v>13.9</v>
       </c>
       <c r="C86" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D86" s="5">
         <v>740</v>
@@ -8465,7 +8869,7 @@
         <v>7.57</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A87" s="2">
         <v>164</v>
       </c>
@@ -8473,7 +8877,7 @@
         <v>13.9</v>
       </c>
       <c r="C87" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D87" s="5">
         <v>740</v>
@@ -8557,7 +8961,7 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A88" s="2">
         <v>166</v>
       </c>
@@ -8565,7 +8969,7 @@
         <v>13.9</v>
       </c>
       <c r="C88" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D88" s="5">
         <v>740</v>
@@ -8628,7 +9032,7 @@
         <v>55</v>
       </c>
       <c r="X88" s="15">
-        <v>16.06</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="Y88" s="16">
         <v>0.35</v>
@@ -8649,7 +9053,7 @@
         <v>7.57</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A89" s="2">
         <v>168</v>
       </c>
@@ -8657,7 +9061,7 @@
         <v>13.9</v>
       </c>
       <c r="C89" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D89" s="5">
         <v>740</v>
@@ -8720,7 +9124,7 @@
         <v>55</v>
       </c>
       <c r="X89" s="15">
-        <v>16.06</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="Y89" s="16">
         <v>0.35</v>
@@ -8741,7 +9145,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A90" s="2">
         <v>170</v>
       </c>
@@ -8749,7 +9153,7 @@
         <v>13.9</v>
       </c>
       <c r="C90" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D90" s="5">
         <v>740</v>
@@ -8833,7 +9237,7 @@
         <v>7.51</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A91" s="2">
         <v>172</v>
       </c>
@@ -8841,7 +9245,7 @@
         <v>13.9</v>
       </c>
       <c r="C91" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D91" s="5">
         <v>740</v>
@@ -8904,7 +9308,7 @@
         <v>55</v>
       </c>
       <c r="X91" s="15">
-        <v>16.24</v>
+        <v>16.239999999999998</v>
       </c>
       <c r="Y91" s="16">
         <v>0.35</v>
@@ -8925,7 +9329,7 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
         <v>174</v>
       </c>
@@ -8933,7 +9337,7 @@
         <v>13.9</v>
       </c>
       <c r="C92" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D92" s="5">
         <v>740</v>
@@ -9017,7 +9421,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A93" s="2">
         <v>176</v>
       </c>
@@ -9025,7 +9429,7 @@
         <v>13.9</v>
       </c>
       <c r="C93" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D93" s="5">
         <v>740</v>
@@ -9109,7 +9513,7 @@
         <v>7.49</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A94" s="2">
         <v>178</v>
       </c>
@@ -9117,7 +9521,7 @@
         <v>13.9</v>
       </c>
       <c r="C94" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D94" s="5">
         <v>740</v>
@@ -9201,7 +9605,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A95" s="2">
         <v>180</v>
       </c>
@@ -9209,7 +9613,7 @@
         <v>13.9</v>
       </c>
       <c r="C95" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D95" s="5">
         <v>740</v>
@@ -9293,7 +9697,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>182</v>
       </c>
@@ -9301,7 +9705,7 @@
         <v>13.9</v>
       </c>
       <c r="C96" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D96" s="5">
         <v>740</v>
@@ -9385,7 +9789,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <v>184</v>
       </c>
@@ -9393,7 +9797,7 @@
         <v>13.9</v>
       </c>
       <c r="C97" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D97" s="5">
         <v>740</v>
@@ -9477,7 +9881,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A98" s="2">
         <v>186</v>
       </c>
@@ -9485,7 +9889,7 @@
         <v>13.9</v>
       </c>
       <c r="C98" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D98" s="5">
         <v>740</v>
@@ -9569,7 +9973,7 @@
         <v>7.57</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A99" s="2">
         <v>188</v>
       </c>
@@ -9577,7 +9981,7 @@
         <v>13.9</v>
       </c>
       <c r="C99" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D99" s="5">
         <v>740</v>
@@ -9661,7 +10065,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A100" s="2">
         <v>190</v>
       </c>
@@ -9669,7 +10073,7 @@
         <v>13.9</v>
       </c>
       <c r="C100" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D100" s="5">
         <v>740</v>
@@ -9753,7 +10157,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
         <v>192</v>
       </c>
@@ -9761,7 +10165,7 @@
         <v>13.9</v>
       </c>
       <c r="C101" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D101" s="5">
         <v>740</v>
@@ -9845,7 +10249,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A102" s="2">
         <v>194</v>
       </c>
@@ -9853,7 +10257,7 @@
         <v>13.9</v>
       </c>
       <c r="C102" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D102" s="5">
         <v>740</v>
@@ -9916,7 +10320,7 @@
         <v>55</v>
       </c>
       <c r="X102" s="15">
-        <v>16.35</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="Y102" s="16">
         <v>0.35</v>
@@ -9937,7 +10341,7 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A103" s="2">
         <v>196</v>
       </c>
@@ -9945,7 +10349,7 @@
         <v>13.9</v>
       </c>
       <c r="C103" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D103" s="5">
         <v>740</v>
@@ -10029,7 +10433,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A104" s="2">
         <v>198</v>
       </c>
@@ -10037,7 +10441,7 @@
         <v>13.9</v>
       </c>
       <c r="C104" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D104" s="5">
         <v>740</v>
@@ -10121,7 +10525,7 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A105" s="2">
         <v>200</v>
       </c>
@@ -10129,7 +10533,7 @@
         <v>13.9</v>
       </c>
       <c r="C105" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D105" s="5">
         <v>740</v>
@@ -10213,7 +10617,7 @@
         <v>7.49</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A106" s="2">
         <v>202</v>
       </c>
@@ -10221,7 +10625,7 @@
         <v>13.9</v>
       </c>
       <c r="C106" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D106" s="5">
         <v>740</v>
@@ -10305,7 +10709,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A107" s="2">
         <v>204</v>
       </c>
@@ -10313,7 +10717,7 @@
         <v>13.9</v>
       </c>
       <c r="C107" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D107" s="5">
         <v>740</v>
@@ -10376,7 +10780,7 @@
         <v>55</v>
       </c>
       <c r="X107" s="15">
-        <v>16.06</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="Y107" s="16">
         <v>0.35</v>
@@ -10397,7 +10801,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A108" s="2">
         <v>206</v>
       </c>
@@ -10405,7 +10809,7 @@
         <v>13.9</v>
       </c>
       <c r="C108" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D108" s="5">
         <v>740</v>
@@ -10489,7 +10893,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A109" s="2">
         <v>208</v>
       </c>
@@ -10497,7 +10901,7 @@
         <v>13.9</v>
       </c>
       <c r="C109" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D109" s="5">
         <v>740</v>
@@ -10581,7 +10985,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A110" s="2">
         <v>210</v>
       </c>
@@ -10589,7 +10993,7 @@
         <v>13.6</v>
       </c>
       <c r="C110" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D110" s="5">
         <v>740</v>
@@ -10673,7 +11077,7 @@
         <v>7.49</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A111" s="2">
         <v>212</v>
       </c>
@@ -10681,7 +11085,7 @@
         <v>13.6</v>
       </c>
       <c r="C111" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D111" s="5">
         <v>740</v>
@@ -10765,7 +11169,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A112" s="2">
         <v>214</v>
       </c>
@@ -10773,7 +11177,7 @@
         <v>13.6</v>
       </c>
       <c r="C112" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D112" s="5">
         <v>740</v>
@@ -10836,7 +11240,7 @@
         <v>55</v>
       </c>
       <c r="X112" s="15">
-        <v>16.35</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="Y112" s="16">
         <v>0.35</v>
@@ -10857,7 +11261,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A113" s="2">
         <v>216</v>
       </c>
@@ -10865,7 +11269,7 @@
         <v>13.6</v>
       </c>
       <c r="C113" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D113" s="5">
         <v>740</v>
@@ -10949,7 +11353,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A114" s="2">
         <v>218</v>
       </c>
@@ -10957,7 +11361,7 @@
         <v>13.6</v>
       </c>
       <c r="C114" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D114" s="5">
         <v>740</v>
@@ -11041,7 +11445,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A115" s="2">
         <v>220</v>
       </c>
@@ -11049,7 +11453,7 @@
         <v>13.6</v>
       </c>
       <c r="C115" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D115" s="5">
         <v>740</v>
@@ -11085,7 +11489,7 @@
         <v>18.5</v>
       </c>
       <c r="O115" s="12">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="P115" s="3">
         <v>12</v>
@@ -11133,7 +11537,7 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A116" s="2">
         <v>222</v>
       </c>
@@ -11141,7 +11545,7 @@
         <v>13.6</v>
       </c>
       <c r="C116" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D116" s="5">
         <v>740</v>
@@ -11204,7 +11608,7 @@
         <v>55</v>
       </c>
       <c r="X116" s="15">
-        <v>16.35</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="Y116" s="16">
         <v>0.35</v>
@@ -11225,7 +11629,7 @@
         <v>7.51</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A117" s="2">
         <v>224</v>
       </c>
@@ -11233,7 +11637,7 @@
         <v>13.6</v>
       </c>
       <c r="C117" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D117" s="5">
         <v>740</v>
@@ -11317,7 +11721,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A118" s="2">
         <v>226</v>
       </c>
@@ -11325,7 +11729,7 @@
         <v>13.6</v>
       </c>
       <c r="C118" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D118" s="5">
         <v>740</v>
@@ -11409,7 +11813,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A119" s="2">
         <v>228</v>
       </c>
@@ -11417,7 +11821,7 @@
         <v>13.6</v>
       </c>
       <c r="C119" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D119" s="5">
         <v>740</v>
@@ -11501,7 +11905,7 @@
         <v>7.49</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A120" s="2">
         <v>230</v>
       </c>
@@ -11509,7 +11913,7 @@
         <v>13.6</v>
       </c>
       <c r="C120" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D120" s="5">
         <v>740</v>
@@ -11545,7 +11949,7 @@
         <v>18.5</v>
       </c>
       <c r="O120" s="12">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="P120" s="3">
         <v>12</v>
@@ -11593,7 +11997,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A121" s="2">
         <v>232</v>
       </c>
@@ -11601,7 +12005,7 @@
         <v>13.6</v>
       </c>
       <c r="C121" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D121" s="5">
         <v>740</v>
@@ -11664,7 +12068,7 @@
         <v>55</v>
       </c>
       <c r="X121" s="15">
-        <v>16.35</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="Y121" s="16">
         <v>0.35</v>
@@ -11685,7 +12089,7 @@
         <v>7.49</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A122" s="2">
         <v>234</v>
       </c>
@@ -11693,7 +12097,7 @@
         <v>13.6</v>
       </c>
       <c r="C122" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D122" s="5">
         <v>740</v>
@@ -11777,7 +12181,7 @@
         <v>7.49</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A123" s="2">
         <v>236</v>
       </c>
@@ -11785,7 +12189,7 @@
         <v>13.6</v>
       </c>
       <c r="C123" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D123" s="5">
         <v>740</v>
@@ -11869,7 +12273,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A124" s="2">
         <v>238</v>
       </c>
@@ -11877,7 +12281,7 @@
         <v>13.6</v>
       </c>
       <c r="C124" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D124" s="5">
         <v>740</v>
@@ -11961,7 +12365,7 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A125" s="2">
         <v>240</v>
       </c>
@@ -11969,7 +12373,7 @@
         <v>13.6</v>
       </c>
       <c r="C125" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D125" s="5">
         <v>740</v>
@@ -12053,7 +12457,7 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A126" s="2">
         <v>242</v>
       </c>
@@ -12061,7 +12465,7 @@
         <v>13.6</v>
       </c>
       <c r="C126" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D126" s="5">
         <v>740</v>
@@ -12097,7 +12501,7 @@
         <v>18.5</v>
       </c>
       <c r="O126" s="12">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="P126" s="3">
         <v>11.9</v>
@@ -12145,7 +12549,7 @@
         <v>7.49</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A127" s="2">
         <v>244</v>
       </c>
@@ -12153,7 +12557,7 @@
         <v>13.6</v>
       </c>
       <c r="C127" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D127" s="5">
         <v>740</v>
@@ -12237,7 +12641,7 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A128" s="2">
         <v>246</v>
       </c>
@@ -12245,7 +12649,7 @@
         <v>13.6</v>
       </c>
       <c r="C128" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D128" s="5">
         <v>740</v>
@@ -12329,7 +12733,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A129" s="2">
         <v>248</v>
       </c>
@@ -12337,7 +12741,7 @@
         <v>13.6</v>
       </c>
       <c r="C129" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D129" s="5">
         <v>740</v>
@@ -12421,7 +12825,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A130" s="2">
         <v>250</v>
       </c>
@@ -12429,7 +12833,7 @@
         <v>13.6</v>
       </c>
       <c r="C130" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D130" s="5">
         <v>740</v>
@@ -12465,7 +12869,7 @@
         <v>18.5</v>
       </c>
       <c r="O130" s="12">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="P130" s="3">
         <v>11.9</v>
@@ -12513,7 +12917,7 @@
         <v>7.49</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A131" s="2">
         <v>252</v>
       </c>
@@ -12521,7 +12925,7 @@
         <v>13.6</v>
       </c>
       <c r="C131" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D131" s="5">
         <v>740</v>
@@ -12605,7 +13009,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A132" s="2">
         <v>254</v>
       </c>
@@ -12613,7 +13017,7 @@
         <v>13.6</v>
       </c>
       <c r="C132" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D132" s="5">
         <v>740</v>
@@ -12649,7 +13053,7 @@
         <v>18.5</v>
       </c>
       <c r="O132" s="12">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="P132" s="3">
         <v>12</v>
@@ -12697,7 +13101,7 @@
         <v>7.56</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A133" s="2">
         <v>256</v>
       </c>
@@ -12705,7 +13109,7 @@
         <v>13.6</v>
       </c>
       <c r="C133" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D133" s="5">
         <v>740</v>
@@ -12768,7 +13172,7 @@
         <v>55</v>
       </c>
       <c r="X133" s="15">
-        <v>16.24</v>
+        <v>16.239999999999998</v>
       </c>
       <c r="Y133" s="16">
         <v>0.35</v>
@@ -12789,7 +13193,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A134" s="2">
         <v>258</v>
       </c>
@@ -12797,7 +13201,7 @@
         <v>13.6</v>
       </c>
       <c r="C134" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D134" s="5">
         <v>740</v>
@@ -12881,7 +13285,7 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A135" s="2">
         <v>260</v>
       </c>
@@ -12889,7 +13293,7 @@
         <v>13.4</v>
       </c>
       <c r="C135" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D135" s="5">
         <v>740</v>
@@ -12973,7 +13377,7 @@
         <v>7.57</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A136" s="2">
         <v>262</v>
       </c>
@@ -12981,7 +13385,7 @@
         <v>13.4</v>
       </c>
       <c r="C136" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D136" s="5">
         <v>740</v>
@@ -13065,7 +13469,7 @@
         <v>7.56</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A137" s="2">
         <v>264</v>
       </c>
@@ -13073,7 +13477,7 @@
         <v>13.4</v>
       </c>
       <c r="C137" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D137" s="5">
         <v>740</v>
@@ -13157,7 +13561,7 @@
         <v>7.49</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A138" s="2">
         <v>266</v>
       </c>
@@ -13165,7 +13569,7 @@
         <v>13.4</v>
       </c>
       <c r="C138" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D138" s="5">
         <v>740</v>
@@ -13228,7 +13632,7 @@
         <v>55</v>
       </c>
       <c r="X138" s="15">
-        <v>16.35</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="Y138" s="16">
         <v>0.35</v>
@@ -13249,7 +13653,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A139" s="2">
         <v>268</v>
       </c>
@@ -13257,7 +13661,7 @@
         <v>13.4</v>
       </c>
       <c r="C139" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D139" s="5">
         <v>740</v>
@@ -13341,7 +13745,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A140" s="2">
         <v>270</v>
       </c>
@@ -13349,7 +13753,7 @@
         <v>13.4</v>
       </c>
       <c r="C140" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D140" s="5">
         <v>740</v>
@@ -13433,7 +13837,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A141" s="2">
         <v>272</v>
       </c>
@@ -13441,7 +13845,7 @@
         <v>13.4</v>
       </c>
       <c r="C141" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D141" s="5">
         <v>740</v>
@@ -13525,7 +13929,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A142" s="2">
         <v>274</v>
       </c>
@@ -13533,7 +13937,7 @@
         <v>13.4</v>
       </c>
       <c r="C142" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D142" s="5">
         <v>740</v>
@@ -13596,7 +14000,7 @@
         <v>55</v>
       </c>
       <c r="X142" s="15">
-        <v>16.06</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="Y142" s="16">
         <v>0.35</v>
@@ -13617,7 +14021,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A143" s="2">
         <v>276</v>
       </c>
@@ -13625,7 +14029,7 @@
         <v>13.4</v>
       </c>
       <c r="C143" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D143" s="5">
         <v>740</v>
@@ -13709,7 +14113,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A144" s="2">
         <v>278</v>
       </c>
@@ -13717,7 +14121,7 @@
         <v>13.4</v>
       </c>
       <c r="C144" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D144" s="5">
         <v>740</v>
@@ -13801,7 +14205,7 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A145" s="2">
         <v>280</v>
       </c>
@@ -13809,7 +14213,7 @@
         <v>13.4</v>
       </c>
       <c r="C145" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D145" s="5">
         <v>740</v>
@@ -13845,7 +14249,7 @@
         <v>18.5</v>
       </c>
       <c r="O145" s="12">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="P145" s="3">
         <v>11.9</v>
@@ -13893,7 +14297,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A146" s="2">
         <v>282</v>
       </c>
@@ -13901,7 +14305,7 @@
         <v>13.4</v>
       </c>
       <c r="C146" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D146" s="5">
         <v>740</v>
@@ -13985,7 +14389,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A147" s="2">
         <v>284</v>
       </c>
@@ -13993,7 +14397,7 @@
         <v>13.4</v>
       </c>
       <c r="C147" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D147" s="5">
         <v>740</v>
@@ -14077,7 +14481,7 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A148" s="2">
         <v>286</v>
       </c>
@@ -14085,7 +14489,7 @@
         <v>13.4</v>
       </c>
       <c r="C148" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D148" s="5">
         <v>740</v>
@@ -14148,7 +14552,7 @@
         <v>55</v>
       </c>
       <c r="X148" s="15">
-        <v>16.06</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="Y148" s="16">
         <v>0.35</v>
@@ -14169,7 +14573,7 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A149" s="2">
         <v>288</v>
       </c>
@@ -14177,7 +14581,7 @@
         <v>13.4</v>
       </c>
       <c r="C149" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D149" s="5">
         <v>740</v>
@@ -14261,7 +14665,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A150" s="2">
         <v>290</v>
       </c>
@@ -14269,7 +14673,7 @@
         <v>13.4</v>
       </c>
       <c r="C150" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D150" s="5">
         <v>740</v>
@@ -14353,7 +14757,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A151" s="2">
         <v>292</v>
       </c>
@@ -14361,7 +14765,7 @@
         <v>13.4</v>
       </c>
       <c r="C151" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D151" s="5">
         <v>740</v>
@@ -14445,7 +14849,7 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A152" s="2">
         <v>294</v>
       </c>
@@ -14453,7 +14857,7 @@
         <v>13.4</v>
       </c>
       <c r="C152" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D152" s="5">
         <v>740</v>
@@ -14537,7 +14941,7 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A153" s="2">
         <v>296</v>
       </c>
@@ -14545,7 +14949,7 @@
         <v>13.4</v>
       </c>
       <c r="C153" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D153" s="5">
         <v>740</v>
@@ -14629,7 +15033,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A154" s="2">
         <v>298</v>
       </c>
@@ -14637,7 +15041,7 @@
         <v>13.4</v>
       </c>
       <c r="C154" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D154" s="5">
         <v>740</v>
@@ -14673,7 +15077,7 @@
         <v>18.5</v>
       </c>
       <c r="O154" s="12">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="P154" s="3">
         <v>11.9</v>
@@ -14721,7 +15125,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A155" s="2">
         <v>300</v>
       </c>
@@ -14729,7 +15133,7 @@
         <v>13.4</v>
       </c>
       <c r="C155" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D155" s="5">
         <v>740</v>
@@ -14813,7 +15217,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A156" s="2">
         <v>302</v>
       </c>
@@ -14821,7 +15225,7 @@
         <v>13.4</v>
       </c>
       <c r="C156" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D156" s="5">
         <v>740</v>
@@ -14905,7 +15309,7 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A157" s="2">
         <v>304</v>
       </c>
@@ -14913,7 +15317,7 @@
         <v>13.4</v>
       </c>
       <c r="C157" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D157" s="5">
         <v>740</v>
@@ -14997,7 +15401,7 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A158" s="2">
         <v>306</v>
       </c>
@@ -15005,7 +15409,7 @@
         <v>13.4</v>
       </c>
       <c r="C158" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D158" s="5">
         <v>740</v>
@@ -15089,7 +15493,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A159" s="2">
         <v>308</v>
       </c>
@@ -15097,7 +15501,7 @@
         <v>13.4</v>
       </c>
       <c r="C159" s="4">
-        <v>0.00017</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D159" s="5">
         <v>740</v>
@@ -15181,7 +15585,7 @@
         <v>7.49</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A160" s="2">
         <v>310</v>
       </c>
@@ -15189,7 +15593,7 @@
         <v>13.2</v>
       </c>
       <c r="C160" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D160" s="5">
         <v>740</v>
@@ -15273,7 +15677,7 @@
         <v>7.56</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A161" s="2">
         <v>312</v>
       </c>
@@ -15281,7 +15685,7 @@
         <v>13.2</v>
       </c>
       <c r="C161" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D161" s="5">
         <v>740</v>
@@ -15344,7 +15748,7 @@
         <v>55</v>
       </c>
       <c r="X161" s="15">
-        <v>17.19</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="Y161" s="16">
         <v>0.33</v>
@@ -15365,7 +15769,7 @@
         <v>7.49</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A162" s="2">
         <v>314</v>
       </c>
@@ -15373,7 +15777,7 @@
         <v>13.2</v>
       </c>
       <c r="C162" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D162" s="5">
         <v>740</v>
@@ -15436,7 +15840,7 @@
         <v>55</v>
       </c>
       <c r="X162" s="15">
-        <v>16.94</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="Y162" s="16">
         <v>0.33</v>
@@ -15457,7 +15861,7 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A163" s="2">
         <v>316</v>
       </c>
@@ -15465,7 +15869,7 @@
         <v>13.2</v>
       </c>
       <c r="C163" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D163" s="5">
         <v>740</v>
@@ -15549,7 +15953,7 @@
         <v>7.49</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A164" s="2">
         <v>318</v>
       </c>
@@ -15557,7 +15961,7 @@
         <v>13.2</v>
       </c>
       <c r="C164" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D164" s="5">
         <v>740</v>
@@ -15641,7 +16045,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A165" s="2">
         <v>320</v>
       </c>
@@ -15649,7 +16053,7 @@
         <v>13.2</v>
       </c>
       <c r="C165" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D165" s="5">
         <v>740</v>
@@ -15712,7 +16116,7 @@
         <v>55</v>
       </c>
       <c r="X165" s="15">
-        <v>16.81</v>
+        <v>16.809999999999999</v>
       </c>
       <c r="Y165" s="16">
         <v>0.34</v>
@@ -15733,7 +16137,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A166" s="2">
         <v>322</v>
       </c>
@@ -15741,7 +16145,7 @@
         <v>13.2</v>
       </c>
       <c r="C166" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D166" s="5">
         <v>740</v>
@@ -15777,7 +16181,7 @@
         <v>18.5</v>
       </c>
       <c r="O166" s="12">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="P166" s="3">
         <v>11.8</v>
@@ -15825,7 +16229,7 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A167" s="2">
         <v>324</v>
       </c>
@@ -15833,7 +16237,7 @@
         <v>13.2</v>
       </c>
       <c r="C167" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D167" s="5">
         <v>740</v>
@@ -15869,7 +16273,7 @@
         <v>18.5</v>
       </c>
       <c r="O167" s="12">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="P167" s="3">
         <v>11.9</v>
@@ -15917,7 +16321,7 @@
         <v>7.49</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A168" s="2">
         <v>326</v>
       </c>
@@ -15925,7 +16329,7 @@
         <v>13.2</v>
       </c>
       <c r="C168" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D168" s="5">
         <v>740</v>
@@ -16009,7 +16413,7 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A169" s="2">
         <v>328</v>
       </c>
@@ -16017,7 +16421,7 @@
         <v>13.2</v>
       </c>
       <c r="C169" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D169" s="5">
         <v>740</v>
@@ -16101,7 +16505,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A170" s="2">
         <v>330</v>
       </c>
@@ -16109,7 +16513,7 @@
         <v>13.2</v>
       </c>
       <c r="C170" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D170" s="5">
         <v>740</v>
@@ -16145,7 +16549,7 @@
         <v>18.5</v>
       </c>
       <c r="O170" s="12">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="P170" s="3">
         <v>12</v>
@@ -16193,7 +16597,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A171" s="2">
         <v>332</v>
       </c>
@@ -16201,7 +16605,7 @@
         <v>13.2</v>
       </c>
       <c r="C171" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D171" s="5">
         <v>740</v>
@@ -16264,7 +16668,7 @@
         <v>55</v>
       </c>
       <c r="X171" s="15">
-        <v>17.06</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="Y171" s="16">
         <v>0.34</v>
@@ -16285,7 +16689,7 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A172" s="2">
         <v>334</v>
       </c>
@@ -16293,7 +16697,7 @@
         <v>13.2</v>
       </c>
       <c r="C172" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D172" s="5">
         <v>740</v>
@@ -16356,7 +16760,7 @@
         <v>55</v>
       </c>
       <c r="X172" s="15">
-        <v>17.06</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="Y172" s="16">
         <v>0.34</v>
@@ -16377,7 +16781,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A173" s="2">
         <v>336</v>
       </c>
@@ -16385,7 +16789,7 @@
         <v>13.2</v>
       </c>
       <c r="C173" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D173" s="5">
         <v>740</v>
@@ -16469,7 +16873,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A174" s="2">
         <v>338</v>
       </c>
@@ -16477,7 +16881,7 @@
         <v>13.2</v>
       </c>
       <c r="C174" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D174" s="5">
         <v>740</v>
@@ -16540,7 +16944,7 @@
         <v>55</v>
       </c>
       <c r="X174" s="15">
-        <v>16.94</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="Y174" s="16">
         <v>0.33</v>
@@ -16561,7 +16965,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A175" s="2">
         <v>340</v>
       </c>
@@ -16569,7 +16973,7 @@
         <v>13.2</v>
       </c>
       <c r="C175" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D175" s="5">
         <v>740</v>
@@ -16653,7 +17057,7 @@
         <v>7.49</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A176" s="2">
         <v>342</v>
       </c>
@@ -16661,7 +17065,7 @@
         <v>13.2</v>
       </c>
       <c r="C176" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D176" s="5">
         <v>740</v>
@@ -16745,7 +17149,7 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A177" s="2">
         <v>344</v>
       </c>
@@ -16753,7 +17157,7 @@
         <v>13.2</v>
       </c>
       <c r="C177" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D177" s="5">
         <v>740</v>
@@ -16837,7 +17241,7 @@
         <v>7.51</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A178" s="2">
         <v>346</v>
       </c>
@@ -16845,7 +17249,7 @@
         <v>13.2</v>
       </c>
       <c r="C178" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D178" s="5">
         <v>740</v>
@@ -16908,7 +17312,7 @@
         <v>55</v>
       </c>
       <c r="X178" s="15">
-        <v>16.56</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="Y178" s="16">
         <v>0.34</v>
@@ -16929,7 +17333,7 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A179" s="2">
         <v>348</v>
       </c>
@@ -16937,7 +17341,7 @@
         <v>13.2</v>
       </c>
       <c r="C179" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D179" s="5">
         <v>740</v>
@@ -17021,7 +17425,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A180" s="2">
         <v>350</v>
       </c>
@@ -17029,7 +17433,7 @@
         <v>13.2</v>
       </c>
       <c r="C180" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D180" s="5">
         <v>740</v>
@@ -17113,7 +17517,7 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A181" s="2">
         <v>352</v>
       </c>
@@ -17121,7 +17525,7 @@
         <v>13.2</v>
       </c>
       <c r="C181" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D181" s="5">
         <v>740</v>
@@ -17184,7 +17588,7 @@
         <v>55</v>
       </c>
       <c r="X181" s="15">
-        <v>17.06</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="Y181" s="16">
         <v>0.34</v>
@@ -17205,7 +17609,7 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A182" s="2">
         <v>354</v>
       </c>
@@ -17213,7 +17617,7 @@
         <v>13.2</v>
       </c>
       <c r="C182" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D182" s="5">
         <v>740</v>
@@ -17297,7 +17701,7 @@
         <v>7.51</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A183" s="2">
         <v>356</v>
       </c>
@@ -17305,7 +17709,7 @@
         <v>13.2</v>
       </c>
       <c r="C183" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D183" s="5">
         <v>740</v>
@@ -17368,7 +17772,7 @@
         <v>55</v>
       </c>
       <c r="X183" s="15">
-        <v>16.06</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="Y183" s="16">
         <v>0.34</v>
@@ -17389,7 +17793,7 @@
         <v>7.42</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A184" s="2">
         <v>358</v>
       </c>
@@ -17397,7 +17801,7 @@
         <v>13.2</v>
       </c>
       <c r="C184" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D184" s="5">
         <v>740</v>
@@ -17481,7 +17885,7 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A185" s="2">
         <v>360</v>
       </c>
@@ -17489,7 +17893,7 @@
         <v>12.9</v>
       </c>
       <c r="C185" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D185" s="5">
         <v>740</v>
@@ -17573,7 +17977,7 @@
         <v>7.41</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A186" s="2">
         <v>362</v>
       </c>
@@ -17581,7 +17985,7 @@
         <v>12.9</v>
       </c>
       <c r="C186" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D186" s="5">
         <v>740</v>
@@ -17644,7 +18048,7 @@
         <v>55</v>
       </c>
       <c r="X186" s="15">
-        <v>16.56</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="Y186" s="16">
         <v>0.34</v>
@@ -17665,7 +18069,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A187" s="2">
         <v>364</v>
       </c>
@@ -17673,7 +18077,7 @@
         <v>12.9</v>
       </c>
       <c r="C187" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D187" s="5">
         <v>740</v>
@@ -17736,7 +18140,7 @@
         <v>55</v>
       </c>
       <c r="X187" s="15">
-        <v>17.06</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="Y187" s="16">
         <v>0.34</v>
@@ -17757,7 +18161,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A188" s="2">
         <v>366</v>
       </c>
@@ -17765,7 +18169,7 @@
         <v>12.9</v>
       </c>
       <c r="C188" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D188" s="5">
         <v>740</v>
@@ -17801,7 +18205,7 @@
         <v>18.5</v>
       </c>
       <c r="O188" s="12">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="P188" s="3">
         <v>11.8</v>
@@ -17849,7 +18253,7 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A189" s="2">
         <v>368</v>
       </c>
@@ -17857,7 +18261,7 @@
         <v>12.9</v>
       </c>
       <c r="C189" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D189" s="5">
         <v>740</v>
@@ -17941,7 +18345,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A190" s="2">
         <v>370</v>
       </c>
@@ -17949,7 +18353,7 @@
         <v>12.9</v>
       </c>
       <c r="C190" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D190" s="5">
         <v>740</v>
@@ -18033,7 +18437,7 @@
         <v>7.37</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A191" s="2">
         <v>372</v>
       </c>
@@ -18041,7 +18445,7 @@
         <v>12.9</v>
       </c>
       <c r="C191" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D191" s="5">
         <v>740</v>
@@ -18104,7 +18508,7 @@
         <v>55</v>
       </c>
       <c r="X191" s="15">
-        <v>17.06</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="Y191" s="16">
         <v>0.34</v>
@@ -18125,7 +18529,7 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A192" s="2">
         <v>374</v>
       </c>
@@ -18133,7 +18537,7 @@
         <v>12.9</v>
       </c>
       <c r="C192" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D192" s="5">
         <v>740</v>
@@ -18196,7 +18600,7 @@
         <v>55</v>
       </c>
       <c r="X192" s="15">
-        <v>16.56</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="Y192" s="16">
         <v>0.34</v>
@@ -18217,7 +18621,7 @@
         <v>7.39</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A193" s="2">
         <v>376</v>
       </c>
@@ -18225,7 +18629,7 @@
         <v>12.9</v>
       </c>
       <c r="C193" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D193" s="5">
         <v>740</v>
@@ -18309,7 +18713,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A194" s="2">
         <v>378</v>
       </c>
@@ -18317,7 +18721,7 @@
         <v>12.9</v>
       </c>
       <c r="C194" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D194" s="5">
         <v>740</v>
@@ -18380,7 +18784,7 @@
         <v>55</v>
       </c>
       <c r="X194" s="15">
-        <v>16.81</v>
+        <v>16.809999999999999</v>
       </c>
       <c r="Y194" s="16">
         <v>0.34</v>
@@ -18401,7 +18805,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A195" s="2">
         <v>380</v>
       </c>
@@ -18409,7 +18813,7 @@
         <v>12.9</v>
       </c>
       <c r="C195" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D195" s="5">
         <v>740</v>
@@ -18493,7 +18897,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A196" s="2">
         <v>382</v>
       </c>
@@ -18501,7 +18905,7 @@
         <v>12.9</v>
       </c>
       <c r="C196" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D196" s="5">
         <v>740</v>
@@ -18537,7 +18941,7 @@
         <v>18.5</v>
       </c>
       <c r="O196" s="12">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="P196" s="3">
         <v>11.8</v>
@@ -18585,7 +18989,7 @@
         <v>7.42</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A197" s="2">
         <v>384</v>
       </c>
@@ -18593,7 +18997,7 @@
         <v>12.9</v>
       </c>
       <c r="C197" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D197" s="5">
         <v>740</v>
@@ -18677,7 +19081,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A198" s="2">
         <v>386</v>
       </c>
@@ -18685,7 +19089,7 @@
         <v>12.9</v>
       </c>
       <c r="C198" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D198" s="5">
         <v>740</v>
@@ -18721,7 +19125,7 @@
         <v>18.5</v>
       </c>
       <c r="O198" s="12">
-        <v>2.47</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="P198" s="3">
         <v>11.8</v>
@@ -18769,7 +19173,7 @@
         <v>7.39</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A199" s="2">
         <v>388</v>
       </c>
@@ -18777,7 +19181,7 @@
         <v>12.9</v>
       </c>
       <c r="C199" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D199" s="5">
         <v>740</v>
@@ -18861,7 +19265,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A200" s="2">
         <v>390</v>
       </c>
@@ -18869,7 +19273,7 @@
         <v>12.9</v>
       </c>
       <c r="C200" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D200" s="5">
         <v>740</v>
@@ -18905,7 +19309,7 @@
         <v>18.5</v>
       </c>
       <c r="O200" s="12">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="P200" s="3">
         <v>11.8</v>
@@ -18953,7 +19357,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A201" s="2">
         <v>392</v>
       </c>
@@ -18961,7 +19365,7 @@
         <v>12.9</v>
       </c>
       <c r="C201" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D201" s="5">
         <v>740</v>
@@ -19045,7 +19449,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A202" s="2">
         <v>394</v>
       </c>
@@ -19053,7 +19457,7 @@
         <v>12.9</v>
       </c>
       <c r="C202" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D202" s="5">
         <v>740</v>
@@ -19137,7 +19541,7 @@
         <v>7.41</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A203" s="2">
         <v>396</v>
       </c>
@@ -19145,7 +19549,7 @@
         <v>12.9</v>
       </c>
       <c r="C203" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D203" s="5">
         <v>740</v>
@@ -19181,7 +19585,7 @@
         <v>18.5</v>
       </c>
       <c r="O203" s="12">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="P203" s="3">
         <v>11.8</v>
@@ -19229,7 +19633,7 @@
         <v>7.39</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A204" s="2">
         <v>398</v>
       </c>
@@ -19237,7 +19641,7 @@
         <v>12.9</v>
       </c>
       <c r="C204" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D204" s="5">
         <v>740</v>
@@ -19276,7 +19680,7 @@
         <v>0</v>
       </c>
       <c r="P204" s="3">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Q204" s="5">
         <v>1070</v>
@@ -19321,7 +19725,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A205" s="2">
         <v>400</v>
       </c>
@@ -19329,7 +19733,7 @@
         <v>12.9</v>
       </c>
       <c r="C205" s="4">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D205" s="5">
         <v>740</v>
@@ -19414,24 +19818,24 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="6">
+    <mergeCell ref="X1:AD1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:AD1"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:AD205">
-    <cfRule priority="1" type="expression" dxfId="0">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="1:4">
-    <cfRule priority="2" type="expression" dxfId="1">
-      <formula>true</formula>
+  <conditionalFormatting sqref="A1:XFD4">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>